--- a/Инт ИС/АНАЛИЗ==22==ПР.xlsx
+++ b/Инт ИС/АНАЛИЗ==22==ПР.xlsx
@@ -5,24 +5,27 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1_249_21\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1_245_19\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4D3A2A-64DE-44FD-955B-CAE19A849B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1F13D-E8BD-455A-ACF2-EE5DE96498D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'исходные данные'!$H$52:$I$63</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'исходные данные'!$M$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'исходные данные'!$M$52:$M$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'исходные данные'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId2"/>
-    <pivotCache cacheId="15" r:id="rId3"/>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -136,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +173,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,11 +208,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -217,18 +238,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2011,7 +2040,7 @@
             <c:numRef>
               <c:f>'исходные данные'!$L$35:$L$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2133,7 +2162,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2434,7 +2463,7 @@
             <c:numRef>
               <c:f>'исходные данные'!$L$52:$L$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2553,7 +2582,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2673,14 +2702,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18527890137568628"/>
-          <c:y val="4.6204618060621185E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2829,7 +2850,7 @@
             <c:numRef>
               <c:f>'исходные данные'!$M$52:$M$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2934,7 +2955,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="692445584"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2944,6 +2965,7 @@
         <c:axId val="692445584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2961,7 +2983,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3004,37 +3026,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9262,7 +9253,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C69EE6B5-FA90-48E6-AC12-69E29BC35545}" name="Сводная таблица6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C69EE6B5-FA90-48E6-AC12-69E29BC35545}" name="Сводная таблица6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H26:L30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9316,42 +9307,42 @@
     <dataField name="Количество по полю цель полета" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="29">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="7">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9406,7 +9397,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC586FD3-CEF0-411B-ABAC-D7457C27067F}" name="Сводная таблица5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC586FD3-CEF0-411B-ABAC-D7457C27067F}" name="Сводная таблица5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H20:L24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9551,7 +9542,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39833FB6-04B1-4D58-8FBB-36B8E90999FD}" name="Сводная таблица4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39833FB6-04B1-4D58-8FBB-36B8E90999FD}" name="Сводная таблица4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="H14:K18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9601,42 +9592,42 @@
     <dataField name="Количество по полю пол" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="9">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="27">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="26">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="25">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="24">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9999,22 +9990,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -10023,7 +10014,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10043,7 +10034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10067,7 +10058,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10091,7 +10082,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10116,7 +10107,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10141,7 +10132,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10166,7 +10157,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10188,7 +10179,7 @@
       <c r="H7" s="3"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -10212,7 +10203,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -10237,7 +10228,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -10262,7 +10253,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -10287,7 +10278,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -10309,7 +10300,7 @@
       <c r="H12" s="3"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -10333,7 +10324,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10358,8 +10349,11 @@
       <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10390,8 +10384,11 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -10422,6 +10419,9 @@
       <c r="K16" s="11">
         <v>50</v>
       </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -10921,10 +10921,10 @@
       <c r="F33" s="3">
         <v>51</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -10954,7 +10954,7 @@
       <c r="J34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L34" s="12" t="s">
@@ -10995,7 +10995,7 @@
         <f>AVERAGE(H35:I35)</f>
         <v>13</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="17">
         <f>J35/$J$48</f>
         <v>0</v>
       </c>
@@ -11034,7 +11034,7 @@
         <f t="shared" ref="K36:K47" si="0">AVERAGE(H36:I36)</f>
         <v>18</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="17">
         <f t="shared" ref="L36:L47" si="1">J36/$J$48</f>
         <v>0.01</v>
       </c>
@@ -11073,7 +11073,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="17">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -11112,7 +11112,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="17">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -11151,7 +11151,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="17">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -11190,7 +11190,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="17">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
@@ -11229,7 +11229,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="17">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
@@ -11268,7 +11268,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="17">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
@@ -11307,7 +11307,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="17">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
@@ -11346,7 +11346,7 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="17">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -11385,7 +11385,7 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="17">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
@@ -11424,7 +11424,7 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="17">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
@@ -11463,7 +11463,7 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="17">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
@@ -11487,10 +11487,10 @@
       <c r="F48" s="3">
         <v>49</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="7">
         <f>SUM(J35:J47)</f>
         <v>200</v>
@@ -11537,10 +11537,10 @@
       <c r="F50" s="3">
         <v>50</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11571,7 +11571,7 @@
       <c r="J51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L51" s="12" t="s">
@@ -11614,11 +11614,11 @@
         <f>AVERAGE(H52:I52)</f>
         <v>5.5</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="16">
         <f>J52/$J$64</f>
         <v>0</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="16">
         <f>L52</f>
         <v>0</v>
       </c>
@@ -11657,11 +11657,11 @@
         <f t="shared" ref="K53:K63" si="4">AVERAGE(H53:I53)</f>
         <v>15.5</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="16">
         <f t="shared" ref="L53:L63" si="5">J53/$J$64</f>
         <v>0</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="16">
         <f>M52+L53</f>
         <v>0</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>34</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" ref="H54:H65" si="6">H53+10</f>
+        <f t="shared" ref="H54:H63" si="6">H53+10</f>
         <v>21</v>
       </c>
       <c r="I54" s="1">
@@ -11700,11 +11700,11 @@
         <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="16">
         <f t="shared" ref="M54:M63" si="8">M53+L54</f>
         <v>0</v>
       </c>
@@ -11743,11 +11743,11 @@
         <f t="shared" si="4"/>
         <v>35.5</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="16">
         <f t="shared" si="5"/>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="16">
         <f t="shared" si="8"/>
         <v>3.0769230769230771E-2</v>
       </c>
@@ -11786,11 +11786,11 @@
         <f t="shared" si="4"/>
         <v>45.5</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="16">
         <f t="shared" si="8"/>
         <v>3.0769230769230771E-2</v>
       </c>
@@ -11829,11 +11829,11 @@
         <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="16">
         <f t="shared" si="5"/>
         <v>0.26153846153846155</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="16">
         <f t="shared" si="8"/>
         <v>0.29230769230769232</v>
       </c>
@@ -11872,11 +11872,11 @@
         <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="16">
         <f t="shared" si="5"/>
         <v>0.13846153846153847</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="16">
         <f t="shared" si="8"/>
         <v>0.43076923076923079</v>
       </c>
@@ -11915,11 +11915,11 @@
         <f t="shared" si="4"/>
         <v>75.5</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="16">
         <f t="shared" si="5"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="16">
         <f t="shared" si="8"/>
         <v>0.44615384615384618</v>
       </c>
@@ -11958,11 +11958,11 @@
         <f t="shared" si="4"/>
         <v>85.5</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60" s="16">
         <f t="shared" si="5"/>
         <v>0.18461538461538463</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" s="16">
         <f t="shared" si="8"/>
         <v>0.63076923076923075</v>
       </c>
@@ -12001,11 +12001,11 @@
         <f t="shared" si="4"/>
         <v>95.5</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61" s="16">
         <f t="shared" si="5"/>
         <v>9.2307692307692313E-2</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="16">
         <f t="shared" si="8"/>
         <v>0.72307692307692306</v>
       </c>
@@ -12044,11 +12044,11 @@
         <f t="shared" si="4"/>
         <v>105.5</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62" s="16">
         <f t="shared" si="5"/>
         <v>0.24615384615384617</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="16">
         <f t="shared" si="8"/>
         <v>0.96923076923076923</v>
       </c>
@@ -12087,11 +12087,11 @@
         <f t="shared" si="4"/>
         <v>115.5</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63" s="16">
         <f t="shared" si="5"/>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="16">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -12115,10 +12115,10 @@
       <c r="F64" s="3">
         <v>24</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="7">
         <f>SUM(J52:J63)</f>
         <v>130</v>
